--- a/tmp.xlsx
+++ b/tmp.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,11 @@
       <c r="A2" t="n">
         <v>32858679</v>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>에이치피</t>
+        </is>
+      </c>
       <c r="C2" t="n">
         <v>37978538</v>
       </c>
@@ -482,7 +486,11 @@
       <c r="A3" t="n">
         <v>32886907</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>최Garen</t>
+        </is>
+      </c>
       <c r="C3" t="n">
         <v>35965119</v>
       </c>
@@ -499,7 +507,11 @@
       <c r="A4" t="n">
         <v>32916567</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>민준하은</t>
+        </is>
+      </c>
       <c r="C4" t="n">
         <v>34725757</v>
       </c>
@@ -516,7 +528,11 @@
       <c r="A5" t="n">
         <v>32888148</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>정훈이</t>
+        </is>
+      </c>
       <c r="C5" t="n">
         <v>31242617</v>
       </c>
@@ -533,7 +549,11 @@
       <c r="A6" t="n">
         <v>32860442</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>돌팸환돌</t>
+        </is>
+      </c>
       <c r="C6" t="n">
         <v>24991749</v>
       </c>
@@ -550,7 +570,11 @@
       <c r="A7" t="n">
         <v>44463382</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>앤버는글럿</t>
+        </is>
+      </c>
       <c r="C7" t="n">
         <v>17089931</v>
       </c>
@@ -567,7 +591,11 @@
       <c r="A8" t="n">
         <v>32881045</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>화중군자</t>
+        </is>
+      </c>
       <c r="C8" t="n">
         <v>36155646</v>
       </c>
@@ -584,7 +612,11 @@
       <c r="A9" t="n">
         <v>34174033</v>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>알몬비</t>
+        </is>
+      </c>
       <c r="C9" t="n">
         <v>30776819</v>
       </c>
@@ -601,7 +633,11 @@
       <c r="A10" t="n">
         <v>33691098</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>으갹으갹갹</t>
+        </is>
+      </c>
       <c r="C10" t="n">
         <v>29896868</v>
       </c>
@@ -618,7 +654,11 @@
       <c r="A11" t="n">
         <v>32951689</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>문마마</t>
+        </is>
+      </c>
       <c r="C11" t="n">
         <v>29325602</v>
       </c>
@@ -635,7 +675,11 @@
       <c r="A12" t="n">
         <v>32852651</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GEOEMPIRE</t>
+        </is>
+      </c>
       <c r="C12" t="n">
         <v>31160205</v>
       </c>
@@ -652,7 +696,11 @@
       <c r="A13" t="n">
         <v>32842266</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Royal Toi</t>
+        </is>
+      </c>
       <c r="C13" t="n">
         <v>30002936</v>
       </c>
@@ -669,7 +717,11 @@
       <c r="A14" t="n">
         <v>34068695</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ccocco</t>
+        </is>
+      </c>
       <c r="C14" t="n">
         <v>29335968</v>
       </c>
@@ -686,7 +738,11 @@
       <c r="A15" t="n">
         <v>35454450</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>앱솔트</t>
+        </is>
+      </c>
       <c r="C15" t="n">
         <v>29031357</v>
       </c>
@@ -703,7 +759,11 @@
       <c r="A16" t="n">
         <v>34012835</v>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>허세노비</t>
+        </is>
+      </c>
       <c r="C16" t="n">
         <v>28739604</v>
       </c>
@@ -720,7 +780,11 @@
       <c r="A17" t="n">
         <v>32881241</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>전차</t>
+        </is>
+      </c>
       <c r="C17" t="n">
         <v>28376056</v>
       </c>
@@ -737,7 +801,11 @@
       <c r="A18" t="n">
         <v>32820259</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>마리오1023</t>
+        </is>
+      </c>
       <c r="C18" t="n">
         <v>28136315</v>
       </c>
@@ -754,7 +822,11 @@
       <c r="A19" t="n">
         <v>32878345</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>무적금아</t>
+        </is>
+      </c>
       <c r="C19" t="n">
         <v>27232447</v>
       </c>
@@ -771,7 +843,11 @@
       <c r="A20" t="n">
         <v>32819484</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>JSUB0313</t>
+        </is>
+      </c>
       <c r="C20" t="n">
         <v>28610652</v>
       </c>
@@ -788,7 +864,11 @@
       <c r="A21" t="n">
         <v>32900080</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>뀰뀰</t>
+        </is>
+      </c>
       <c r="C21" t="n">
         <v>28151380</v>
       </c>
@@ -805,7 +885,11 @@
       <c r="A22" t="n">
         <v>33334611</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>명세지재</t>
+        </is>
+      </c>
       <c r="C22" t="n">
         <v>28059700</v>
       </c>
@@ -822,7 +906,11 @@
       <c r="A23" t="n">
         <v>33898594</v>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>고오니아빠</t>
+        </is>
+      </c>
       <c r="C23" t="n">
         <v>26970059</v>
       </c>
@@ -839,7 +927,11 @@
       <c r="A24" t="n">
         <v>32910924</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>인수성</t>
+        </is>
+      </c>
       <c r="C24" t="n">
         <v>26948511</v>
       </c>
@@ -856,7 +948,11 @@
       <c r="A25" t="n">
         <v>33984315</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TOYFLY</t>
+        </is>
+      </c>
       <c r="C25" t="n">
         <v>26111220</v>
       </c>
@@ -873,7 +969,11 @@
       <c r="A26" t="n">
         <v>34011747</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dondekman</t>
+        </is>
+      </c>
       <c r="C26" t="n">
         <v>25820409</v>
       </c>
@@ -890,7 +990,11 @@
       <c r="A27" t="n">
         <v>32878596</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>coreanito26</t>
+        </is>
+      </c>
       <c r="C27" t="n">
         <v>25516470</v>
       </c>
@@ -907,7 +1011,11 @@
       <c r="A28" t="n">
         <v>32904134</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>llii0993</t>
+        </is>
+      </c>
       <c r="C28" t="n">
         <v>26262651</v>
       </c>
@@ -924,7 +1032,11 @@
       <c r="A29" t="n">
         <v>32947520</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>알파카조앙</t>
+        </is>
+      </c>
       <c r="C29" t="n">
         <v>26065182</v>
       </c>
@@ -941,7 +1053,11 @@
       <c r="A30" t="n">
         <v>32889863</v>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>륭입니다</t>
+        </is>
+      </c>
       <c r="C30" t="n">
         <v>25612932</v>
       </c>
@@ -958,7 +1074,11 @@
       <c r="A31" t="n">
         <v>32873041</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>꿈도없다</t>
+        </is>
+      </c>
       <c r="C31" t="n">
         <v>25506380</v>
       </c>
@@ -975,7 +1095,11 @@
       <c r="A32" t="n">
         <v>32858701</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>aquagu</t>
+        </is>
+      </c>
       <c r="C32" t="n">
         <v>25197150</v>
       </c>
@@ -992,7 +1116,11 @@
       <c r="A33" t="n">
         <v>33963794</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>수라비</t>
+        </is>
+      </c>
       <c r="C33" t="n">
         <v>24590641</v>
       </c>
@@ -1009,7 +1137,11 @@
       <c r="A34" t="n">
         <v>32870013</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>섭리</t>
+        </is>
+      </c>
       <c r="C34" t="n">
         <v>24224691</v>
       </c>
@@ -1026,7 +1158,11 @@
       <c r="A35" t="n">
         <v>32921831</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TGG밀크커피</t>
+        </is>
+      </c>
       <c r="C35" t="n">
         <v>23339001</v>
       </c>
@@ -1043,7 +1179,11 @@
       <c r="A36" t="n">
         <v>32850372</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>킹갓권율</t>
+        </is>
+      </c>
       <c r="C36" t="n">
         <v>25013341</v>
       </c>
@@ -1060,7 +1200,11 @@
       <c r="A37" t="n">
         <v>33995797</v>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ALOHABIN</t>
+        </is>
+      </c>
       <c r="C37" t="n">
         <v>24470938</v>
       </c>
@@ -1077,7 +1221,11 @@
       <c r="A38" t="n">
         <v>34027799</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>썁새끼</t>
+        </is>
+      </c>
       <c r="C38" t="n">
         <v>23520007</v>
       </c>
@@ -1094,7 +1242,11 @@
       <c r="A39" t="n">
         <v>34344247</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>운동하자</t>
+        </is>
+      </c>
       <c r="C39" t="n">
         <v>23197826</v>
       </c>
@@ -1111,7 +1263,11 @@
       <c r="A40" t="n">
         <v>32818701</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>kdc0627</t>
+        </is>
+      </c>
       <c r="C40" t="n">
         <v>22790343</v>
       </c>
@@ -1128,7 +1284,11 @@
       <c r="A41" t="n">
         <v>33264554</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TOP신상25</t>
+        </is>
+      </c>
       <c r="C41" t="n">
         <v>22222930</v>
       </c>
@@ -1145,7 +1305,11 @@
       <c r="A42" t="n">
         <v>32886302</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>파괴본능</t>
+        </is>
+      </c>
       <c r="C42" t="n">
         <v>22011103</v>
       </c>
@@ -1162,7 +1326,11 @@
       <c r="A43" t="n">
         <v>32866794</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>소혼시후</t>
+        </is>
+      </c>
       <c r="C43" t="n">
         <v>20828747</v>
       </c>
@@ -1179,7 +1347,11 @@
       <c r="A44" t="n">
         <v>32916643</v>
       </c>
-      <c r="B44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>람겸</t>
+        </is>
+      </c>
       <c r="C44" t="n">
         <v>22368983</v>
       </c>
@@ -1196,7 +1368,11 @@
       <c r="A45" t="n">
         <v>34015869</v>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>독고구천검</t>
+        </is>
+      </c>
       <c r="C45" t="n">
         <v>22050817</v>
       </c>
@@ -1213,7 +1389,11 @@
       <c r="A46" t="n">
         <v>32909658</v>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>다혜나라</t>
+        </is>
+      </c>
       <c r="C46" t="n">
         <v>21915702</v>
       </c>
@@ -1230,7 +1410,11 @@
       <c r="A47" t="n">
         <v>32850382</v>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NO ABE</t>
+        </is>
+      </c>
       <c r="C47" t="n">
         <v>20388213</v>
       </c>
@@ -1247,7 +1431,11 @@
       <c r="A48" t="n">
         <v>32871044</v>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>N2coni</t>
+        </is>
+      </c>
       <c r="C48" t="n">
         <v>19111151</v>
       </c>
@@ -1264,7 +1452,11 @@
       <c r="A49" t="n">
         <v>32908249</v>
       </c>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>아나머</t>
+        </is>
+      </c>
       <c r="C49" t="n">
         <v>18188666</v>
       </c>
@@ -1281,7 +1473,11 @@
       <c r="A50" t="n">
         <v>32911721</v>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>히니</t>
+        </is>
+      </c>
       <c r="C50" t="n">
         <v>17608104</v>
       </c>
@@ -1298,7 +1494,11 @@
       <c r="A51" t="n">
         <v>32937381</v>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>큰연못</t>
+        </is>
+      </c>
       <c r="C51" t="n">
         <v>19300412</v>
       </c>
@@ -1315,7 +1515,11 @@
       <c r="A52" t="n">
         <v>32865578</v>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>뚠뚠월드</t>
+        </is>
+      </c>
       <c r="C52" t="n">
         <v>19075617</v>
       </c>
@@ -1332,7 +1536,11 @@
       <c r="A53" t="n">
         <v>32889186</v>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DP kakei</t>
+        </is>
+      </c>
       <c r="C53" t="n">
         <v>17854269</v>
       </c>
@@ -1349,7 +1557,11 @@
       <c r="A54" t="n">
         <v>37268288</v>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>신승용1997</t>
+        </is>
+      </c>
       <c r="C54" t="n">
         <v>17527156</v>
       </c>
@@ -1366,7 +1578,11 @@
       <c r="A55" t="n">
         <v>35508783</v>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>노호자</t>
+        </is>
+      </c>
       <c r="C55" t="n">
         <v>17300700</v>
       </c>
@@ -1383,7 +1599,11 @@
       <c r="A56" t="n">
         <v>32824512</v>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>젠트리</t>
+        </is>
+      </c>
       <c r="C56" t="n">
         <v>16963682</v>
       </c>
@@ -1400,7 +1620,11 @@
       <c r="A57" t="n">
         <v>32937876</v>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TOP랄랄랄라</t>
+        </is>
+      </c>
       <c r="C57" t="n">
         <v>16617380</v>
       </c>
@@ -1417,7 +1641,11 @@
       <c r="A58" t="n">
         <v>32939826</v>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>퀴리 마리</t>
+        </is>
+      </c>
       <c r="C58" t="n">
         <v>16391463</v>
       </c>
@@ -1434,7 +1662,11 @@
       <c r="A59" t="n">
         <v>32931677</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1812L</t>
+        </is>
+      </c>
       <c r="C59" t="n">
         <v>17079774</v>
       </c>
@@ -1451,7 +1683,11 @@
       <c r="A60" t="n">
         <v>39715543</v>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>신난스티치</t>
+        </is>
+      </c>
       <c r="C60" t="n">
         <v>16884755</v>
       </c>
@@ -1468,7 +1704,11 @@
       <c r="A61" t="n">
         <v>32899091</v>
       </c>
-      <c r="B61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>jeehoney</t>
+        </is>
+      </c>
       <c r="C61" t="n">
         <v>16417456</v>
       </c>
@@ -1485,7 +1725,11 @@
       <c r="A62" t="n">
         <v>32921203</v>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>기짝</t>
+        </is>
+      </c>
       <c r="C62" t="n">
         <v>16234079</v>
       </c>
@@ -1502,7 +1746,11 @@
       <c r="A63" t="n">
         <v>34001747</v>
       </c>
-      <c r="B63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>고투덩실</t>
+        </is>
+      </c>
       <c r="C63" t="n">
         <v>15933831</v>
       </c>
@@ -1519,7 +1767,11 @@
       <c r="A64" t="n">
         <v>34035160</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LordMohmmed</t>
+        </is>
+      </c>
       <c r="C64" t="n">
         <v>14735652</v>
       </c>
@@ -1536,7 +1788,11 @@
       <c r="A65" t="n">
         <v>36892658</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>욱그리거</t>
+        </is>
+      </c>
       <c r="C65" t="n">
         <v>13704108</v>
       </c>
@@ -1553,7 +1809,11 @@
       <c r="A66" t="n">
         <v>32905501</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HDST훈블리</t>
+        </is>
+      </c>
       <c r="C66" t="n">
         <v>13413470</v>
       </c>
@@ -1570,7 +1830,11 @@
       <c r="A67" t="n">
         <v>35650857</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>영양아구</t>
+        </is>
+      </c>
       <c r="C67" t="n">
         <v>15505839</v>
       </c>
@@ -1587,7 +1851,11 @@
       <c r="A68" t="n">
         <v>32895911</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>castlejun</t>
+        </is>
+      </c>
       <c r="C68" t="n">
         <v>13860185</v>
       </c>
@@ -1604,7 +1872,11 @@
       <c r="A69" t="n">
         <v>37796819</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>붉은물결</t>
+        </is>
+      </c>
       <c r="C69" t="n">
         <v>13476863</v>
       </c>
@@ -1621,7 +1893,11 @@
       <c r="A70" t="n">
         <v>34568871</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>빅보스</t>
+        </is>
+      </c>
       <c r="C70" t="n">
         <v>10791420</v>
       </c>
@@ -1638,7 +1914,11 @@
       <c r="A71" t="n">
         <v>32916321</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DONMELCHOR</t>
+        </is>
+      </c>
       <c r="C71" t="n">
         <v>9995360</v>
       </c>
@@ -1655,7 +1935,11 @@
       <c r="A72" t="n">
         <v>52207379</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>WestUK</t>
+        </is>
+      </c>
       <c r="C72" t="n">
         <v>9142663</v>
       </c>
@@ -1664,7 +1948,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-04.png</t>
+          <t>Screenshot_2020-07-17-19-19-51.png</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1956,11 @@
       <c r="A73" t="n">
         <v>53114051</v>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>정동생</t>
+        </is>
+      </c>
       <c r="C73" t="n">
         <v>7028851</v>
       </c>
@@ -1681,7 +1969,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-10.png</t>
+          <t>Screenshot_2020-07-17-19-19-57.png</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1977,11 @@
       <c r="A74" t="n">
         <v>60143585</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>국뽕탱이</t>
+        </is>
+      </c>
       <c r="C74" t="n">
         <v>4231847</v>
       </c>
@@ -1698,7 +1990,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-17.png</t>
+          <t>Screenshot_2020-07-17-19-20-04.png</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1998,11 @@
       <c r="A75" t="n">
         <v>32875812</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Dalredal</t>
+        </is>
+      </c>
       <c r="C75" t="n">
         <v>9610731</v>
       </c>
@@ -1723,7 +2019,11 @@
       <c r="A76" t="n">
         <v>63002044</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>이천산적</t>
+        </is>
+      </c>
       <c r="C76" t="n">
         <v>8018841</v>
       </c>
@@ -1732,7 +2032,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-29.png</t>
+          <t>Screenshot_2020-07-17-19-20-16.png</t>
         </is>
       </c>
     </row>
@@ -1740,7 +2040,11 @@
       <c r="A77" t="n">
         <v>32904825</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>끄로바군주</t>
+        </is>
+      </c>
       <c r="C77" t="n">
         <v>7028430</v>
       </c>
@@ -1749,7 +2053,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-35.png</t>
+          <t>Screenshot_2020-07-17-19-20-22.png</t>
         </is>
       </c>
     </row>
@@ -1757,7 +2061,11 @@
       <c r="A78" t="n">
         <v>32915466</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>노래하는 허브</t>
+        </is>
+      </c>
       <c r="C78" t="n">
         <v>4151270</v>
       </c>
@@ -1766,787 +2074,694 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-41.png</t>
+          <t>Screenshot_2020-07-17-19-20-28.png</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>52207379</v>
-      </c>
-      <c r="B79" t="inlineStr"/>
+        <v>63270437</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>김건빵2</t>
+        </is>
+      </c>
       <c r="C79" t="n">
-        <v>9142663</v>
+        <v>3192644</v>
       </c>
       <c r="D79" t="n">
-        <v>195512</v>
+        <v>0</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-51.png</t>
+          <t>Screenshot_2020-07-17-19-20-10.png</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>53114051</v>
-      </c>
-      <c r="B80" t="inlineStr"/>
+        <v>49497280</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DreamMart</t>
+        </is>
+      </c>
       <c r="C80" t="n">
-        <v>7028851</v>
+        <v>2340675</v>
       </c>
       <c r="D80" t="n">
-        <v>23564</v>
+        <v>20303</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-19-57.png</t>
+          <t>Screenshot_2020-07-17-19-20-34.png</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>60143585</v>
-      </c>
-      <c r="B81" t="inlineStr"/>
+        <v>64094946</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>윤성뭉</t>
+        </is>
+      </c>
       <c r="C81" t="n">
-        <v>4231847</v>
+        <v>1492588</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>4832</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-04.png</t>
+          <t>Screenshot_2020-07-17-19-20-41.png</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>63270437</v>
-      </c>
-      <c r="B82" t="inlineStr"/>
+        <v>69419248</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>늠선생</t>
+        </is>
+      </c>
       <c r="C82" t="n">
-        <v>3192644</v>
+        <v>53694</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-10.png</t>
+          <t>Screenshot_2020-07-17-19-20-47.png</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>63002044</v>
-      </c>
-      <c r="B83" t="inlineStr"/>
+        <v>32914780</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>방범대원</t>
+        </is>
+      </c>
       <c r="C83" t="n">
-        <v>8018841</v>
+        <v>72134525</v>
       </c>
       <c r="D83" t="n">
-        <v>467</v>
+        <v>6879402</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-16.png</t>
+          <t>Screenshot_2020-07-17-19-20-57.png</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>32904825</v>
-      </c>
-      <c r="B84" t="inlineStr"/>
+        <v>32921102</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>6072리</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>7028430</v>
+        <v>63487461</v>
       </c>
       <c r="D84" t="n">
-        <v>25515</v>
+        <v>14723705</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-22.png</t>
+          <t>Screenshot_2020-07-17-19-21-03.png</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>32915466</v>
-      </c>
-      <c r="B85" t="inlineStr"/>
+        <v>33003834</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>노마</t>
+        </is>
+      </c>
       <c r="C85" t="n">
-        <v>4151270</v>
+        <v>51348420</v>
       </c>
       <c r="D85" t="n">
-        <v>252964</v>
+        <v>12036964</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-28.png</t>
+          <t>Screenshot_2020-07-17-19-21-09.png</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>49497280</v>
-      </c>
-      <c r="B86" t="inlineStr"/>
+        <v>32948675</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>조시안서</t>
+        </is>
+      </c>
       <c r="C86" t="n">
-        <v>2340675</v>
+        <v>42533568</v>
       </c>
       <c r="D86" t="n">
-        <v>20303</v>
+        <v>1147994</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-34.png</t>
+          <t>Screenshot_2020-07-17-19-21-15.png</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>64094946</v>
-      </c>
-      <c r="B87" t="inlineStr"/>
+        <v>34000149</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>초록별공공</t>
+        </is>
+      </c>
       <c r="C87" t="n">
-        <v>1492588</v>
+        <v>69452636</v>
       </c>
       <c r="D87" t="n">
-        <v>4832</v>
+        <v>11230236</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-41.png</t>
+          <t>Screenshot_2020-07-17-19-21-22.png</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>69419248</v>
-      </c>
-      <c r="B88" t="inlineStr"/>
+        <v>32944092</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>유로</t>
+        </is>
+      </c>
       <c r="C88" t="n">
-        <v>53694</v>
+        <v>58017270</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>11887762</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-47.png</t>
+          <t>Screenshot_2020-07-17-19-21-28.png</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>32914780</v>
-      </c>
-      <c r="B89" t="inlineStr"/>
+        <v>32858136</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>폭풍청산</t>
+        </is>
+      </c>
       <c r="C89" t="n">
-        <v>72134525</v>
+        <v>43789496</v>
       </c>
       <c r="D89" t="n">
-        <v>6879402</v>
+        <v>4173307</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-20-57.png</t>
+          <t>Screenshot_2020-07-17-19-21-34.png</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>32921102</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
+        <v>32904056</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>828 K9</t>
+        </is>
+      </c>
       <c r="C90" t="n">
-        <v>63487461</v>
+        <v>40618917</v>
       </c>
       <c r="D90" t="n">
-        <v>14723705</v>
+        <v>5691505</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-03.png</t>
+          <t>Screenshot_2020-07-17-19-21-40.png</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>33003834</v>
-      </c>
-      <c r="B91" t="inlineStr"/>
+        <v>32877848</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>농사꾼메데</t>
+        </is>
+      </c>
       <c r="C91" t="n">
-        <v>51348420</v>
+        <v>38111814</v>
       </c>
       <c r="D91" t="n">
-        <v>12036964</v>
+        <v>3046637</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-09.png</t>
+          <t>Screenshot_2020-07-17-19-21-46.png</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>32948675</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
+        <v>32892748</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>빠삐장군</t>
+        </is>
+      </c>
       <c r="C92" t="n">
-        <v>42533568</v>
+        <v>33698982</v>
       </c>
       <c r="D92" t="n">
-        <v>1147994</v>
+        <v>825534</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-15.png</t>
+          <t>Screenshot_2020-07-17-19-21-52.png</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>34000149</v>
-      </c>
-      <c r="B93" t="inlineStr"/>
+        <v>32885285</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>폭풍날먹</t>
+        </is>
+      </c>
       <c r="C93" t="n">
-        <v>69452636</v>
+        <v>36170925</v>
       </c>
       <c r="D93" t="n">
-        <v>11230236</v>
+        <v>15218710</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-22.png</t>
+          <t>Screenshot_2020-07-17-19-21-58.png</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>32944092</v>
-      </c>
-      <c r="B94" t="inlineStr"/>
+        <v>32901235</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>자한당멸망</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>58017270</v>
+        <v>32239689</v>
       </c>
       <c r="D94" t="n">
-        <v>11887762</v>
+        <v>153638</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-28.png</t>
+          <t>Screenshot_2020-07-17-19-22-05.png</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>32858136</v>
-      </c>
-      <c r="B95" t="inlineStr"/>
+        <v>34882192</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>최강장수</t>
+        </is>
+      </c>
       <c r="C95" t="n">
-        <v>43789496</v>
+        <v>31497076</v>
       </c>
       <c r="D95" t="n">
-        <v>4173307</v>
+        <v>41479</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-34.png</t>
+          <t>Screenshot_2020-07-17-19-22-14.png</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>32904056</v>
-      </c>
-      <c r="B96" t="inlineStr"/>
+        <v>32873061</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>아스라</t>
+        </is>
+      </c>
       <c r="C96" t="n">
-        <v>40618917</v>
+        <v>31048561</v>
       </c>
       <c r="D96" t="n">
-        <v>5691505</v>
+        <v>2572974</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-40.png</t>
+          <t>Screenshot_2020-07-17-19-22-20.png</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>32877848</v>
-      </c>
-      <c r="B97" t="inlineStr"/>
+        <v>42395617</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>세그마</t>
+        </is>
+      </c>
       <c r="C97" t="n">
-        <v>38111814</v>
+        <v>17396256</v>
       </c>
       <c r="D97" t="n">
-        <v>3046637</v>
+        <v>898314</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-46.png</t>
+          <t>Screenshot_2020-07-17-19-23-31.png</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>32892748</v>
+        <v>0</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>33698982</v>
+        <v>3480996</v>
       </c>
       <c r="D98" t="n">
-        <v>825534</v>
+        <v>30602</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-52.png</t>
+          <t>Screenshot_2020-07-17-19-22-33.png</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>32885285</v>
-      </c>
-      <c r="B99" t="inlineStr"/>
+        <v>35658838</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>강백호</t>
+        </is>
+      </c>
       <c r="C99" t="n">
-        <v>36170925</v>
+        <v>31106891</v>
       </c>
       <c r="D99" t="n">
-        <v>15218710</v>
+        <v>1869634</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-21-58.png</t>
+          <t>Screenshot_2020-07-17-19-22-39.png</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>32901235</v>
-      </c>
-      <c r="B100" t="inlineStr"/>
+        <v>42193164</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>국제공항2</t>
+        </is>
+      </c>
       <c r="C100" t="n">
-        <v>32239689</v>
+        <v>20504328</v>
       </c>
       <c r="D100" t="n">
-        <v>153638</v>
+        <v>207800</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-05.png</t>
+          <t>Screenshot_2020-07-17-19-22-45.png</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>34882192</v>
-      </c>
-      <c r="B101" t="inlineStr"/>
+        <v>38066976</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>바다검</t>
+        </is>
+      </c>
       <c r="C101" t="n">
-        <v>31497076</v>
+        <v>12822817</v>
       </c>
       <c r="D101" t="n">
-        <v>41479</v>
+        <v>49660</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-14.png</t>
+          <t>Screenshot_2020-07-17-19-23-56.png</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>32873061</v>
-      </c>
-      <c r="B102" t="inlineStr"/>
+        <v>41805300</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>화중군자금</t>
+        </is>
+      </c>
       <c r="C102" t="n">
-        <v>31048561</v>
+        <v>2248134</v>
       </c>
       <c r="D102" t="n">
-        <v>2572974</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-20.png</t>
+          <t>Screenshot_2020-07-17-19-24-02.png</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>42395617</v>
-      </c>
-      <c r="B103" t="inlineStr"/>
+        <v>42547043</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>메구리</t>
+        </is>
+      </c>
       <c r="C103" t="n">
-        <v>17396256</v>
+        <v>1957670</v>
       </c>
       <c r="D103" t="n">
-        <v>898314</v>
+        <v>30845</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-26.png</t>
+          <t>Screenshot_2020-07-17-19-23-44.png</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
-      </c>
-      <c r="B104" t="inlineStr"/>
+        <v>56796484</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>야루루루</t>
+        </is>
+      </c>
       <c r="C104" t="n">
-        <v>3480996</v>
+        <v>1180281</v>
       </c>
       <c r="D104" t="n">
-        <v>30602</v>
+        <v>6479</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-33.png</t>
+          <t>Screenshot_2020-07-17-19-23-50.png</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>35658838</v>
-      </c>
-      <c r="B105" t="inlineStr"/>
+        <v>42546537</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>키라라 아스카</t>
+        </is>
+      </c>
       <c r="C105" t="n">
-        <v>31106891</v>
+        <v>1765499</v>
       </c>
       <c r="D105" t="n">
-        <v>1869634</v>
+        <v>41443</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-39.png</t>
+          <t>Screenshot_2020-07-17-19-24-08.png</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>42193164</v>
-      </c>
-      <c r="B106" t="inlineStr"/>
+        <v>42482910</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GERENT0T</t>
+        </is>
+      </c>
       <c r="C106" t="n">
-        <v>20504328</v>
+        <v>1022609</v>
       </c>
       <c r="D106" t="n">
-        <v>207800</v>
+        <v>0</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-45.png</t>
+          <t>Screenshot_2020-07-17-19-24-14.png</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>38066976</v>
-      </c>
-      <c r="B107" t="inlineStr"/>
+        <v>38003357</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>유니지갑</t>
+        </is>
+      </c>
       <c r="C107" t="n">
-        <v>12822817</v>
+        <v>3480996</v>
       </c>
       <c r="D107" t="n">
-        <v>49660</v>
+        <v>30602</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-51.png</t>
+          <t>Screenshot_2020-07-17-19-23-37.png</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>41805300</v>
-      </c>
-      <c r="B108" t="inlineStr"/>
+        <v>55222825</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>우헤아라 아이</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>2248134</v>
+        <v>849942</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>332</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-22-57.png</t>
+          <t>Screenshot_2020-07-17-19-24-20.png</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>42547043</v>
-      </c>
-      <c r="B109" t="inlineStr"/>
+        <v>52115995</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Dream공산팀</t>
+        </is>
+      </c>
       <c r="C109" t="n">
-        <v>1957670</v>
+        <v>491354</v>
       </c>
       <c r="D109" t="n">
-        <v>30845</v>
+        <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-23-03.png</t>
+          <t>Screenshot_2020-07-17-19-24-27.png</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>56796484</v>
-      </c>
-      <c r="B110" t="inlineStr"/>
+        <v>55223781</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>하마사키 마오</t>
+        </is>
+      </c>
       <c r="C110" t="n">
-        <v>1180281</v>
+        <v>819236</v>
       </c>
       <c r="D110" t="n">
-        <v>6479</v>
+        <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Screenshot_2020-07-17-19-23-10.png</t>
+          <t>Screenshot_2020-07-17-19-24-33.png</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>42546537</v>
-      </c>
-      <c r="B111" t="inlineStr"/>
+        <v>68575684</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>똥꼬가스랄여서오그리마</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>1765499</v>
+        <v>396921</v>
       </c>
       <c r="D111" t="n">
-        <v>41443</v>
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-16.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>42482910</v>
-      </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
-        <v>1022609</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-22.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>42395617</v>
-      </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
-        <v>17396256</v>
-      </c>
-      <c r="D113" t="n">
-        <v>898314</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-31.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>38003357</v>
-      </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
-        <v>3480996</v>
-      </c>
-      <c r="D114" t="n">
-        <v>30602</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-37.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>42547043</v>
-      </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
-        <v>1957670</v>
-      </c>
-      <c r="D115" t="n">
-        <v>30845</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-44.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>56796484</v>
-      </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="n">
-        <v>1180281</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6479</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-50.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>38066976</v>
-      </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="n">
-        <v>12822817</v>
-      </c>
-      <c r="D117" t="n">
-        <v>49660</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-23-56.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>41805300</v>
-      </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="n">
-        <v>2248134</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-24-02.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>42546537</v>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
-        <v>1765499</v>
-      </c>
-      <c r="D119" t="n">
-        <v>41443</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-24-08.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>42482910</v>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="n">
-        <v>1022609</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-24-14.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>55222825</v>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
-        <v>849942</v>
-      </c>
-      <c r="D121" t="n">
-        <v>332</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-24-20.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>52115995</v>
-      </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
-        <v>491354</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-24-27.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>55223781</v>
-      </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="n">
-        <v>819236</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Screenshot_2020-07-17-19-24-33.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>68575684</v>
-      </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="n">
-        <v>396921</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" t="inlineStr">
         <is>
           <t>Screenshot_2020-07-17-19-24-39.png</t>
         </is>
